--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
-  <si>
-    <t>Herbivora</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -446,11 +443,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -460,49 +455,44 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -510,19 +500,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -530,157 +520,157 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Alvin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Alvin\Documents\GitHub\Makhluk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -445,7 +445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -89,34 +89,13 @@
     <t xml:space="preserve">Harimau </t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>u</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>deltaKecepatan</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -446,7 +425,7 @@
   <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -488,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -525,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -533,7 +512,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,7 +528,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,7 +536,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -565,7 +544,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,7 +552,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -581,7 +560,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Alvin\Documents\GitHub\Makhluk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali-pc\Documents\GitHub\Makhluk-master\Makhluk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -96,12 +96,30 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -520,7 +538,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,7 +546,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -536,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -544,7 +562,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -560,7 +578,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -579,7 +597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -590,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -607,7 +625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -624,34 +642,106 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali-pc\Documents\GitHub\Makhluk-master\Makhluk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditio Pangestu\Documents\GitHub\Makhluk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>u,g,m,b,h,y,t</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>p, r</t>
+  </si>
+  <si>
+    <t>p, t</t>
+  </si>
+  <si>
+    <t>u,g,m,b,h,y,r</t>
   </si>
 </sst>
 </file>
@@ -140,15 +158,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,13 +180,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,141 +497,221 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditio Pangestu\Documents\GitHub\Makhluk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Alvin\Documents\GitHub\Makhluk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Isi Dunia" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Alvin\Documents\GitHub\Makhluk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali-pc\Documents\GitHub\Makhluk-master\Makhluk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -135,12 +135,18 @@
   </si>
   <si>
     <t>u,g,m,b,h,y,r</t>
+  </si>
+  <si>
+    <t>p,t</t>
+  </si>
+  <si>
+    <t>y,u,g,m,b,r,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,14 +661,24 @@
         <v>16</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali-pc\Documents\GitHub\Makhluk-master\Makhluk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Alvin\Documents\GitHub\Makhluk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -119,34 +119,16 @@
     <t>t</t>
   </si>
   <si>
-    <t>u,g,m,b,h,y,t</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>p, r</t>
-  </si>
-  <si>
-    <t>p, t</t>
-  </si>
-  <si>
-    <t>u,g,m,b,h,y,r</t>
-  </si>
-  <si>
-    <t>p,t</t>
-  </si>
-  <si>
-    <t>y,u,g,m,b,r,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,10 +189,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,228 +491,248 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
@@ -739,150 +743,281 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F32" t="s">
         <v>16</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G32" t="s">
         <v>17</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H32" t="s">
         <v>11</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D34" t="s">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E34" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Alvin\Documents\GitHub\Makhluk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali-pc\Documents\GitHub\Makhluk-master\Makhluk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -123,12 +123,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>harimau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +481,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -858,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,9 +876,6 @@
       </c>
       <c r="D26" t="s">
         <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -889,9 +889,6 @@
       <c r="D27" t="s">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -923,6 +920,9 @@
       <c r="C30" t="s">
         <v>19</v>
       </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -931,6 +931,9 @@
       </c>
       <c r="C31" t="s">
         <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -113,9 +113,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -123,6 +120,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Hewan</t>
   </si>
 </sst>
 </file>
@@ -477,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,7 +581,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -578,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -591,7 +603,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -600,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -695,7 +707,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -715,7 +727,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -739,13 +751,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -765,7 +777,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -799,6 +811,9 @@
       <c r="D21" t="s">
         <v>28</v>
       </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -828,6 +843,9 @@
       <c r="D23" t="s">
         <v>28</v>
       </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -858,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -890,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,7 +928,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -930,7 +948,7 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -95,12 +95,6 @@
     <t>deltaKecepatan</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -135,6 +129,9 @@
   </si>
   <si>
     <t>Hewan</t>
+  </si>
+  <si>
+    <t>u,g,m,b,h,y</t>
   </si>
 </sst>
 </file>
@@ -489,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +522,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,7 +578,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -590,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -603,7 +600,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -612,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -625,7 +622,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
@@ -645,7 +642,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
@@ -665,7 +662,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -687,7 +684,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -707,7 +704,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -727,7 +724,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -751,16 +748,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -777,10 +774,10 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -803,16 +800,16 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,16 +832,16 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
         <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,16 +864,16 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
         <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -899,16 +896,16 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
         <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -925,10 +922,10 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -945,10 +942,10 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -989,22 +986,22 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1026,10 +1023,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Data Isi Dunia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,8 +529,9 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>5</v>
+      <c r="B3" s="2">
+        <f ca="1">RANDBETWEEN(20,100)</f>
+        <v>64</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -552,7 +553,8 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <f t="shared" ref="B4:B12" ca="1" si="0">RANDBETWEEN(20,100)</f>
+        <v>84</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -573,8 +575,9 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>8</v>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -596,7 +599,8 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -617,8 +621,9 @@
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
-        <v>7</v>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -638,7 +643,8 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -657,8 +663,9 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
-        <v>6</v>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -680,7 +687,8 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(20,100)</f>
+        <v>38</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -699,8 +707,9 @@
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3">
-        <v>3</v>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
@@ -720,7 +729,8 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -734,6 +744,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f ca="1">RANDBETWEEN(20,100)</f>
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">

--- a/catatan_oop.xlsx
+++ b/catatan_oop.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>Burung_unta</t>
   </si>
@@ -132,6 +132,27 @@
   </si>
   <si>
     <t>u,g,m,b,h,y</t>
+  </si>
+  <si>
+    <t>t,u,g,m,b,h,y</t>
+  </si>
+  <si>
+    <t>t,C</t>
+  </si>
+  <si>
+    <t>H,h,y,b</t>
+  </si>
+  <si>
+    <t>h,y,H,t</t>
+  </si>
+  <si>
+    <t>H,t</t>
+  </si>
+  <si>
+    <t>g,u,m,b,h,y,C,H</t>
+  </si>
+  <si>
+    <t>m,b,g,u</t>
   </si>
 </sst>
 </file>
@@ -487,7 +508,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,9 +552,11 @@
       </c>
       <c r="B3" s="2">
         <f ca="1">RANDBETWEEN(20,100)</f>
-        <v>64</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
@@ -554,9 +577,11 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B12" ca="1" si="0">RANDBETWEEN(20,100)</f>
-        <v>84</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
@@ -577,9 +602,11 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
@@ -600,9 +627,11 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
@@ -623,9 +652,11 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
@@ -644,9 +675,11 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
@@ -665,9 +698,11 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -688,9 +723,11 @@
       </c>
       <c r="B10" s="2">
         <f ca="1">RANDBETWEEN(20,100)</f>
-        <v>38</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
@@ -709,9 +746,11 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
@@ -730,9 +769,11 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
@@ -748,7 +789,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G14">
         <f ca="1">RANDBETWEEN(20,100)</f>
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
